--- a/code/covariates/model_4F.xlsx
+++ b/code/covariates/model_4F.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Subject</t>
   </si>
@@ -51,6 +51,9 @@
   <si>
     <t xml:space="preserve">Fit*RS</t>
   </si>
+  <si>
+    <t xml:space="preserve">Salience</t>
+  </si>
 </sst>
 </file>
 
@@ -64,6 +67,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -165,12 +169,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,6 +195,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,79 +231,83 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="14.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="8" t="n">
         <v>1001</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="n">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>-0.42737463492449</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="8" t="n">
         <v>0.0485712026734694</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="8" t="n">
         <v>0.469387755102041</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>-8.02873802582258</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="9" t="n">
         <v>0.491867511693115</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="10" t="n">
         <v>-0.329041970752585</v>
       </c>
       <c r="I2" s="1" t="n">
@@ -300,30 +316,33 @@
       <c r="J2" s="1" t="n">
         <v>-0.00369465951300143</v>
       </c>
+      <c r="K2" s="2" t="n">
+        <v>-2.305969136</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="8" t="n">
         <v>1003</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="n">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>-0.16236682272449</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="8" t="n">
         <v>0.124435317573469</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="8" t="n">
         <v>0.469387755102041</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>-8.02873802582258</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="9" t="n">
         <v>0.00638414210808214</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="10" t="n">
         <v>-0.556921919741478</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -332,30 +351,33 @@
       <c r="J3" s="1" t="n">
         <v>2.29824049012635E-005</v>
       </c>
+      <c r="K3" s="2" t="n">
+        <v>17.21934596</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="8" t="n">
         <v>1004</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="n">
+      <c r="B4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>-0.12438363542449</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="8" t="n">
         <v>-0.456402109126531</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="8" t="n">
         <v>2.46938775510204</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>-2.15118700541441</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="9" t="n">
         <v>-0.28490587958468</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="10" t="n">
         <v>-1.26346164827683</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -364,30 +386,33 @@
       <c r="J4" s="1" t="n">
         <v>0.0042187953469951</v>
       </c>
+      <c r="K4" s="2" t="n">
+        <v>7.847117768</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="8" t="n">
         <v>1006</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="n">
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>1.31249918507551</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="8" t="n">
         <v>-0.852310549426531</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="8" t="n">
         <v>-0.530612244897959</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>-7.96751353602666</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="9" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="10" t="n">
         <v>0.0549421474575288</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -396,30 +421,33 @@
       <c r="J5" s="1" t="n">
         <v>-0.00186317352547437</v>
       </c>
+      <c r="K5" s="2" t="n">
+        <v>-1.061352483</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="8" t="n">
         <v>1009</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="n">
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="n">
         <v>1.19081208997551</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="8" t="n">
         <v>0.0549717451734694</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="8" t="n">
         <v>1.46938775510204</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>-6.0899625156185</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="9" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="10" t="n">
         <v>-2.26260974186841</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -428,30 +456,33 @@
       <c r="J6" s="1" t="n">
         <v>0.0028323544975971</v>
       </c>
+      <c r="K6" s="2" t="n">
+        <v>-1.405058497</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="8" t="n">
         <v>1010</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="n">
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="n">
         <v>-0.52787693882449</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="8" t="n">
         <v>0.0743054953734694</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="8" t="n">
         <v>-1.53061224489796</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>-5.90628904623074</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="9" t="n">
         <v>3.2660748372877</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="10" t="n">
         <v>-5.55901269657951</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -460,30 +491,33 @@
       <c r="J7" s="1" t="n">
         <v>-0.00307461633284992</v>
       </c>
+      <c r="K7" s="2" t="n">
+        <v>8.808231115</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="8" t="n">
         <v>1011</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="n">
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="n">
         <v>-0.0969085700244898</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="8" t="n">
         <v>0.514405812773469</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="8" t="n">
         <v>2.46938775510204</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>-2.15118700541441</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="9" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="10" t="n">
         <v>-4.14069369928289</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -492,30 +526,33 @@
       <c r="J8" s="1" t="n">
         <v>-0.00754725074229039</v>
       </c>
+      <c r="K8" s="2" t="n">
+        <v>-19.39217076</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="8" t="n">
         <v>1012</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="n">
+      <c r="B9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="n">
         <v>1.90331356567551</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="8" t="n">
         <v>-1.04765708252653</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="8" t="n">
         <v>-4.53061224489796</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>12.277384423157</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="9" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="10" t="n">
         <v>6.00976806520722</v>
       </c>
       <c r="I9" s="1" t="n">
@@ -524,30 +561,33 @@
       <c r="J9" s="1" t="n">
         <v>0.00275343915575225</v>
       </c>
+      <c r="K9" s="2" t="n">
+        <v>-1.988156325</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="8" t="n">
         <v>1013</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="n">
+      <c r="B10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="n">
         <v>1.65980322807551</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="8" t="n">
         <v>-1.29871256632653</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="8" t="n">
         <v>4.46938775510204</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>11.7263640149938</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="9" t="n">
         <v>-0.80275480710321</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="10" t="n">
         <v>-4.14774106309023</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -556,30 +596,33 @@
       <c r="J10" s="1" t="n">
         <v>-0.00258692873281425</v>
       </c>
+      <c r="K10" s="2" t="n">
+        <v>0.5798261244</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="8" t="n">
         <v>1015</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="n">
+      <c r="B11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="n">
         <v>0.76025834777551</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="8" t="n">
         <v>0.233755386673469</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="8" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="9" t="n">
         <v>2.33670431565018</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="10" t="n">
         <v>-8.80991542741428</v>
       </c>
       <c r="I11" s="1" t="n">
@@ -588,30 +631,33 @@
       <c r="J11" s="1" t="n">
         <v>0.00798031408663808</v>
       </c>
+      <c r="K11" s="2" t="n">
+        <v>-12.11669604</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="8" t="n">
         <v>1016</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="n">
+      <c r="B12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="n">
         <v>1.30122162707551</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="8" t="n">
         <v>-0.737729982126531</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="8" t="n">
         <v>3.46938775510204</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>3.78758850478969</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="9" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="10" t="n">
         <v>-4.58016163119435</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -620,30 +666,33 @@
       <c r="J12" s="1" t="n">
         <v>0.00876520822732824</v>
       </c>
+      <c r="K12" s="2" t="n">
+        <v>16.14409357</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="8" t="n">
         <v>1019</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="n">
+      <c r="B13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="n">
         <v>-0.16946823332449</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="8" t="n">
         <v>-0.0853713748265306</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="8" t="n">
         <v>3.46938775510204</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>3.78758850478969</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="9" t="n">
         <v>0.00638414210808214</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="10" t="n">
         <v>-0.537769493417231</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -652,30 +701,33 @@
       <c r="J13" s="1" t="n">
         <v>-0.0129003427083705</v>
       </c>
+      <c r="K13" s="2" t="n">
+        <v>35.93129773</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="8" t="n">
         <v>1021</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="n">
+      <c r="B14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="n">
         <v>0.13400203807551</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="8" t="n">
         <v>-0.184157528226531</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="8" t="n">
         <v>-1.53061224489796</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>-5.90628904623074</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="9" t="n">
         <v>-0.576195901277442</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="10" t="n">
         <v>0.322013944081426</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -684,30 +736,33 @@
       <c r="J14" s="1" t="n">
         <v>-0.0101966966307152</v>
       </c>
+      <c r="K14" s="2" t="n">
+        <v>-32.51691384</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="8" t="n">
         <v>1242</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="n">
+      <c r="B15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="n">
         <v>-0.14843950982449</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="8" t="n">
         <v>-1.01954352272653</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="8" t="n">
         <v>2.46938775510204</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>-2.15118700541441</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="9" t="n">
         <v>1.46283425057189</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="10" t="n">
         <v>3.05238642823225</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -716,30 +771,33 @@
       <c r="J15" s="1" t="n">
         <v>0.00617160481409652</v>
       </c>
+      <c r="K15" s="2" t="n">
+        <v>13.29879369</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="8" t="n">
         <v>1243</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="n">
+      <c r="B16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="n">
         <v>-0.18990325012449</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="8" t="n">
         <v>2.94035266937347</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="8" t="n">
         <v>-2.53061224489796</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>-1.84506455643482</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="9" t="n">
         <v>-0.576195901277442</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="10" t="n">
         <v>0.898209845358868</v>
       </c>
       <c r="I16" s="1" t="n">
@@ -748,30 +806,33 @@
       <c r="J16" s="1" t="n">
         <v>-0.00813390280845115</v>
       </c>
+      <c r="K16" s="2" t="n">
+        <v>-15.71908017</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="8" t="n">
         <v>1244</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="n">
+      <c r="B17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="n">
         <v>0.0452098673755102</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="8" t="n">
         <v>1.04787654227347</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="8" t="n">
         <v>4.46938775510204</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>11.7263640149938</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="9" t="n">
         <v>1.38656481042455</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="10" t="n">
         <v>5.63717722749302</v>
       </c>
       <c r="I17" s="1" t="n">
@@ -780,30 +841,33 @@
       <c r="J17" s="1" t="n">
         <v>0.0259840588621051</v>
       </c>
+      <c r="K17" s="2" t="n">
+        <v>-22.23640474</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="8" t="n">
         <v>1245</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="n">
+      <c r="B18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="n">
         <v>0.10512162497551</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="8" t="n">
         <v>-0.735970197626531</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="8" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="9" t="n">
         <v>0.0341343703876991</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="10" t="n">
         <v>-0.680433783936536</v>
       </c>
       <c r="I18" s="1" t="n">
@@ -812,30 +876,33 @@
       <c r="J18" s="1" t="n">
         <v>-0.00280340336190017</v>
       </c>
+      <c r="K18" s="2" t="n">
+        <v>-21.21637332</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="8" t="n">
         <v>1247</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6" t="n">
+      <c r="B19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="n">
         <v>-1.11557372412449</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="8" t="n">
         <v>1.11055757467347</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="8" t="n">
         <v>3.46938775510204</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>3.78758850478969</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="9" t="n">
         <v>-0.576195901277442</v>
       </c>
-      <c r="H19" s="8" t="n">
+      <c r="H19" s="10" t="n">
         <v>-2.55896556230578</v>
       </c>
       <c r="I19" s="1" t="n">
@@ -844,30 +911,33 @@
       <c r="J19" s="1" t="n">
         <v>0.0224248896112637</v>
       </c>
+      <c r="K19" s="2" t="n">
+        <v>-16.47216809</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="8" t="n">
         <v>1248</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="n">
+      <c r="B20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="n">
         <v>1.42489123347551</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="8" t="n">
         <v>-0.926126546326531</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="8" t="n">
         <v>2.46938775510204</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>-2.15118700541441</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="G20" s="9" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20" s="10" t="n">
         <v>-4.14069369928289</v>
       </c>
       <c r="I20" s="1" t="n">
@@ -876,30 +946,33 @@
       <c r="J20" s="1" t="n">
         <v>-0.000406370166525596</v>
       </c>
+      <c r="K20" s="2" t="n">
+        <v>5.767763411</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="8" t="n">
         <v>1249</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="n">
+      <c r="B21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="n">
         <v>-0.0326591863244898</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="8" t="n">
         <v>0.838810402073469</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="8" t="n">
         <v>2.46938775510204</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>-2.15118700541441</v>
       </c>
-      <c r="G21" s="7" t="n">
+      <c r="G21" s="9" t="n">
         <v>-0.0976355263188734</v>
       </c>
-      <c r="H21" s="8" t="n">
+      <c r="H21" s="10" t="n">
         <v>-0.801018531028612</v>
       </c>
       <c r="I21" s="1" t="n">
@@ -908,30 +981,33 @@
       <c r="J21" s="1" t="n">
         <v>0.0132011351688593</v>
       </c>
+      <c r="K21" s="2" t="n">
+        <v>5.232181344</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="8" t="n">
         <v>1255</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="n">
+      <c r="B22" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="n">
         <v>-0.15579362062449</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="8" t="n">
         <v>-0.142690298326531</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="8" t="n">
         <v>-0.530612244897959</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>-7.96751353602666</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="G22" s="9" t="n">
         <v>0.297674163800844</v>
       </c>
-      <c r="H22" s="8" t="n">
+      <c r="H22" s="10" t="n">
         <v>-0.717868114176331</v>
       </c>
       <c r="I22" s="1" t="n">
@@ -940,30 +1016,33 @@
       <c r="J22" s="1" t="n">
         <v>0.00605405465008893</v>
       </c>
+      <c r="K22" s="2" t="n">
+        <v>-5.516301198</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="8" t="n">
         <v>1276</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="n">
+      <c r="B23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="n">
         <v>-0.79059105102449</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="8" t="n">
         <v>-0.0897233809265306</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="8" t="n">
         <v>-2.53061224489796</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>-1.84506455643482</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="9" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H23" s="8" t="n">
+      <c r="H23" s="10" t="n">
         <v>3.10963613249576</v>
       </c>
       <c r="I23" s="1" t="n">
@@ -972,30 +1051,33 @@
       <c r="J23" s="1" t="n">
         <v>-0.0218848299346057</v>
       </c>
+      <c r="K23" s="2" t="n">
+        <v>-40.05085875</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="8" t="n">
         <v>1282</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6" t="n">
+      <c r="B24" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="n">
         <v>1.35785769107551</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="8" t="n">
         <v>-1.12300003282653</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="8" t="n">
         <v>4.46938775510204</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>11.7263640149938</v>
       </c>
-      <c r="G24" s="7" t="n">
+      <c r="G24" s="9" t="n">
         <v>0.512694745346267</v>
       </c>
-      <c r="H24" s="8" t="n">
+      <c r="H24" s="10" t="n">
         <v>1.73151305908192</v>
       </c>
       <c r="I24" s="1" t="n">
@@ -1004,30 +1086,33 @@
       <c r="J24" s="1" t="n">
         <v>0.0486704889463875</v>
       </c>
+      <c r="K24" s="2" t="n">
+        <v>-5.728649876</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+      <c r="A25" s="8" t="n">
         <v>1286</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6" t="n">
+      <c r="B25" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="n">
         <v>-1.27047124752449</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="8" t="n">
         <v>-0.294977751126531</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="8" t="n">
         <v>-0.530612244897959</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>-7.96751353602666</v>
       </c>
-      <c r="G25" s="7" t="n">
+      <c r="G25" s="9" t="n">
         <v>-0.867485922970203</v>
       </c>
-      <c r="H25" s="8" t="n">
+      <c r="H25" s="10" t="n">
         <v>-0.0996199048692454</v>
       </c>
       <c r="I25" s="1" t="n">
@@ -1036,30 +1121,33 @@
       <c r="J25" s="1" t="n">
         <v>-0.0119977713445312</v>
       </c>
+      <c r="K25" s="2" t="n">
+        <v>8.020780365</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="8" t="n">
         <v>1294</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6" t="n">
+      <c r="B26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8" t="n">
         <v>-1.11464006042449</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="8" t="n">
         <v>-0.243807628126531</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="8" t="n">
         <v>-2.53061224489796</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>-1.84506455643482</v>
       </c>
-      <c r="G26" s="7" t="n">
+      <c r="G26" s="9" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H26" s="8" t="n">
+      <c r="H26" s="10" t="n">
         <v>2.37249403678347</v>
       </c>
       <c r="I26" s="1" t="n">
@@ -1068,30 +1156,33 @@
       <c r="J26" s="1" t="n">
         <v>-0.0411740599372172</v>
       </c>
+      <c r="K26" s="2" t="n">
+        <v>-5.576375677</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+      <c r="A27" s="8" t="n">
         <v>1300</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="n">
+      <c r="B27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8" t="n">
         <v>-1.70454864402449</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="8" t="n">
         <v>1.68994138527347</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="8" t="n">
         <v>-4.53061224489796</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>12.277384423157</v>
       </c>
-      <c r="G27" s="7" t="n">
+      <c r="G27" s="9" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H27" s="8" t="n">
+      <c r="H27" s="10" t="n">
         <v>4.69004592610941</v>
       </c>
       <c r="I27" s="1" t="n">
@@ -1100,30 +1191,33 @@
       <c r="J27" s="1" t="n">
         <v>-0.0116498360013615</v>
       </c>
+      <c r="K27" s="2" t="n">
+        <v>3.098742614</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="8" t="n">
         <v>1301</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6" t="n">
+      <c r="B28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="n">
         <v>-0.31526744542449</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="8" t="n">
         <v>1.20618707457347</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="8" t="n">
         <v>-2.53061224489796</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>-1.84506455643482</v>
       </c>
-      <c r="G28" s="7" t="n">
+      <c r="G28" s="9" t="n">
         <v>0.00638414210808214</v>
       </c>
-      <c r="H28" s="8" t="n">
+      <c r="H28" s="10" t="n">
         <v>-0.576074346065724</v>
       </c>
       <c r="I28" s="1" t="n">
@@ -1132,30 +1226,33 @@
       <c r="J28" s="1" t="n">
         <v>-0.00611872027431441</v>
       </c>
+      <c r="K28" s="2" t="n">
+        <v>-11.91618496</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+      <c r="A29" s="8" t="n">
         <v>1302</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6" t="n">
+      <c r="B29" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8" t="n">
         <v>-0.54000060052449</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="8" t="n">
         <v>-0.206425675826531</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="8" t="n">
         <v>4.46938775510204</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>11.7263640149938</v>
       </c>
-      <c r="G29" s="7" t="n">
+      <c r="G29" s="9" t="n">
         <v>0.935754663745602</v>
       </c>
-      <c r="H29" s="8" t="n">
+      <c r="H29" s="10" t="n">
         <v>3.62233187805038</v>
       </c>
       <c r="I29" s="1" t="n">
@@ -1164,30 +1261,33 @@
       <c r="J29" s="1" t="n">
         <v>0.0325952961571473</v>
       </c>
+      <c r="K29" s="2" t="n">
+        <v>-6.502786948</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="8" t="n">
         <v>1303</v>
       </c>
-      <c r="B30" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6" t="n">
+      <c r="B30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="n">
         <v>-0.66170024372449</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="8" t="n">
         <v>-0.281963048926531</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="8" t="n">
         <v>0.469387755102041</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>-8.02873802582258</v>
       </c>
-      <c r="G30" s="7" t="n">
+      <c r="G30" s="9" t="n">
         <v>2.71124502235726</v>
       </c>
-      <c r="H30" s="8" t="n">
+      <c r="H30" s="10" t="n">
         <v>0.712706656702014</v>
       </c>
       <c r="I30" s="1" t="n">
@@ -1196,30 +1296,33 @@
       <c r="J30" s="1" t="n">
         <v>-0.00325640459157796</v>
       </c>
+      <c r="K30" s="2" t="n">
+        <v>-10.9686055</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="8" t="n">
         <v>3116</v>
       </c>
-      <c r="B31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6" t="n">
+      <c r="B31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8" t="n">
         <v>0.66075843907551</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="8" t="n">
         <v>-0.151150056026531</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="8" t="n">
         <v>1.46938775510204</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>-6.0899625156185</v>
       </c>
-      <c r="G31" s="7" t="n">
+      <c r="G31" s="9" t="n">
         <v>-0.867485922970203</v>
       </c>
-      <c r="H31" s="8" t="n">
+      <c r="H31" s="10" t="n">
         <v>-1.83459175080965</v>
       </c>
       <c r="I31" s="1" t="n">
@@ -1228,30 +1331,33 @@
       <c r="J31" s="1" t="n">
         <v>0.00614712110925962</v>
       </c>
+      <c r="K31" s="2" t="n">
+        <v>18.17879522</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="8" t="n">
         <v>3125</v>
       </c>
-      <c r="B32" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6" t="n">
+      <c r="B32" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8" t="n">
         <v>-1.46181216862449</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="8" t="n">
         <v>2.68934628417347</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="8" t="n">
         <v>4.46938775510204</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>11.7263640149938</v>
       </c>
-      <c r="G32" s="7" t="n">
+      <c r="G32" s="9" t="n">
         <v>-0.0976355263188734</v>
       </c>
-      <c r="H32" s="8" t="n">
+      <c r="H32" s="10" t="n">
         <v>-0.996289583666358</v>
       </c>
       <c r="I32" s="1" t="n">
@@ -1260,30 +1366,33 @@
       <c r="J32" s="1" t="n">
         <v>0.0194041565304709</v>
       </c>
+      <c r="K32" s="2" t="n">
+        <v>2.147796366</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
+      <c r="A33" s="8" t="n">
         <v>3140</v>
       </c>
-      <c r="B33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6" t="n">
+      <c r="B33" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8" t="n">
         <v>-0.49736100912449</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="8" t="n">
         <v>0.837475212773469</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="8" t="n">
         <v>-1.53061224489796</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>-5.90628904623074</v>
       </c>
-      <c r="G33" s="7" t="n">
+      <c r="G33" s="9" t="n">
         <v>0.168211932066856</v>
       </c>
-      <c r="H33" s="8" t="n">
+      <c r="H33" s="10" t="n">
         <v>-0.817385800833316</v>
       </c>
       <c r="I33" s="1" t="n">
@@ -1292,30 +1401,33 @@
       <c r="J33" s="1" t="n">
         <v>0.0123442481118261</v>
       </c>
+      <c r="K33" s="2" t="n">
+        <v>-16.21051805</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="8" t="n">
         <v>3143</v>
       </c>
-      <c r="B34" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6" t="n">
+      <c r="B34" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="n">
         <v>-0.45150598642449</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="8" t="n">
         <v>-0.748348577826531</v>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="8" t="n">
         <v>0.469387755102041</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>-8.02873802582258</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="G34" s="9" t="n">
         <v>5.50633783161039</v>
       </c>
-      <c r="H34" s="8" t="n">
+      <c r="H34" s="10" t="n">
         <v>2.0246889957392</v>
       </c>
       <c r="I34" s="1" t="n">
@@ -1324,30 +1436,33 @@
       <c r="J34" s="1" t="n">
         <v>-0.00467155207587284</v>
       </c>
+      <c r="K34" s="2" t="n">
+        <v>-7.15613366</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
+      <c r="A35" s="8" t="n">
         <v>3166</v>
       </c>
-      <c r="B35" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6" t="n">
+      <c r="B35" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="n">
         <v>0.75352617697551</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="8" t="n">
         <v>-0.153642665126531</v>
       </c>
-      <c r="E35" s="6" t="n">
+      <c r="E35" s="8" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G35" s="7" t="n">
+      <c r="G35" s="9" t="n">
         <v>-0.548445672997825</v>
       </c>
-      <c r="H35" s="8" t="n">
+      <c r="H35" s="10" t="n">
         <v>1.37643045087358</v>
       </c>
       <c r="I35" s="1" t="n">
@@ -1356,30 +1471,33 @@
       <c r="J35" s="1" t="n">
         <v>-0.00320570794726316</v>
       </c>
+      <c r="K35" s="2" t="n">
+        <v>-12.34463788</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="8" t="n">
         <v>3167</v>
       </c>
-      <c r="B36" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6" t="n">
+      <c r="B36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8" t="n">
         <v>0.78455111337551</v>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" s="8" t="n">
         <v>0.757208319173469</v>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="E36" s="8" t="n">
         <v>-2.53061224489796</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>-1.84506455643482</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="G36" s="9" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H36" s="8" t="n">
+      <c r="H36" s="10" t="n">
         <v>2.37249403678347</v>
       </c>
       <c r="I36" s="1" t="n">
@@ -1388,30 +1506,33 @@
       <c r="J36" s="1" t="n">
         <v>-0.0092823507110469</v>
       </c>
+      <c r="K36" s="2" t="n">
+        <v>-21.98838703</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
+      <c r="A37" s="8" t="n">
         <v>3170</v>
       </c>
-      <c r="B37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6" t="n">
+      <c r="B37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8" t="n">
         <v>1.56017667277551</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="8" t="n">
         <v>-1.41844738822653</v>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="8" t="n">
         <v>-4.53061224489796</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>12.277384423157</v>
       </c>
-      <c r="G37" s="7" t="n">
+      <c r="G37" s="9" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H37" s="8" t="n">
+      <c r="H37" s="10" t="n">
         <v>6.00976806520722</v>
       </c>
       <c r="I37" s="1" t="n">
@@ -1420,30 +1541,33 @@
       <c r="J37" s="1" t="n">
         <v>-0.0251948338275051</v>
       </c>
+      <c r="K37" s="2" t="n">
+        <v>-7.799575114</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+      <c r="A38" s="8" t="n">
         <v>3173</v>
       </c>
-      <c r="B38" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="6" t="n">
+      <c r="B38" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8" t="n">
         <v>0.37034984817551</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="8" t="n">
         <v>-1.34042331412653</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="8" t="n">
         <v>3.46938775510204</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>3.78758850478969</v>
       </c>
-      <c r="G38" s="7" t="n">
+      <c r="G38" s="9" t="n">
         <v>-1.15877594466297</v>
       </c>
-      <c r="H38" s="8" t="n">
+      <c r="H38" s="10" t="n">
         <v>-4.58016163119435</v>
       </c>
       <c r="I38" s="1" t="n">
@@ -1452,30 +1576,33 @@
       <c r="J38" s="1" t="n">
         <v>0.0193575379956801</v>
       </c>
+      <c r="K38" s="2" t="n">
+        <v>22.08905737</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+      <c r="A39" s="8" t="n">
         <v>3175</v>
       </c>
-      <c r="B39" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6" t="n">
+      <c r="B39" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8" t="n">
         <v>-1.34197700092449</v>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" s="8" t="n">
         <v>1.29806219857347</v>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E39" s="8" t="n">
         <v>-4.53061224489796</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>12.277384423157</v>
       </c>
-      <c r="G39" s="7" t="n">
+      <c r="G39" s="9" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H39" s="8" t="n">
+      <c r="H39" s="10" t="n">
         <v>6.00976806520722</v>
       </c>
       <c r="I39" s="1" t="n">
@@ -1484,30 +1611,33 @@
       <c r="J39" s="1" t="n">
         <v>0.0323075673364356</v>
       </c>
+      <c r="K39" s="2" t="n">
+        <v>-5.118490761</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="8" t="n">
         <v>3176</v>
       </c>
-      <c r="B40" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6" t="n">
+      <c r="B40" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8" t="n">
         <v>0.14859288967551</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="8" t="n">
         <v>0.532024230873469</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="8" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G40" s="7" t="n">
+      <c r="G40" s="9" t="n">
         <v>0.48494451706665</v>
       </c>
-      <c r="H40" s="8" t="n">
+      <c r="H40" s="10" t="n">
         <v>-2.27206960792549</v>
       </c>
       <c r="I40" s="1" t="n">
@@ -1516,30 +1646,33 @@
       <c r="J40" s="1" t="n">
         <v>-0.0238175301669184</v>
       </c>
+      <c r="K40" s="2" t="n">
+        <v>33.86106113</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
+      <c r="A41" s="8" t="n">
         <v>3189</v>
       </c>
-      <c r="B41" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6" t="n">
+      <c r="B41" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8" t="n">
         <v>0.37419985047551</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="8" t="n">
         <v>-0.729764628326531</v>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="8" t="n">
         <v>-0.530612244897959</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>-7.96751353602666</v>
       </c>
-      <c r="G41" s="7" t="n">
+      <c r="G41" s="9" t="n">
         <v>-0.0421350695841674</v>
       </c>
-      <c r="H41" s="8" t="n">
+      <c r="H41" s="10" t="n">
         <v>-0.537561174012856</v>
       </c>
       <c r="I41" s="1" t="n">
@@ -1548,30 +1681,33 @@
       <c r="J41" s="1" t="n">
         <v>-0.00384268909766861</v>
       </c>
+      <c r="K41" s="2" t="n">
+        <v>-13.40608206</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="8" t="n">
         <v>3190</v>
       </c>
-      <c r="B42" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="n">
+      <c r="B42" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8" t="n">
         <v>-0.90900341952449</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="8" t="n">
         <v>0.0272330568734694</v>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="8" t="n">
         <v>3.46938775510204</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>3.78758850478969</v>
       </c>
-      <c r="G42" s="7" t="n">
+      <c r="G42" s="9" t="n">
         <v>-0.680215569704397</v>
       </c>
-      <c r="H42" s="8" t="n">
+      <c r="H42" s="10" t="n">
         <v>-2.91985012623604</v>
       </c>
       <c r="I42" s="1" t="n">
@@ -1580,30 +1716,33 @@
       <c r="J42" s="1" t="n">
         <v>-0.0707750493205081</v>
       </c>
+      <c r="K42" s="2" t="n">
+        <v>6.880002889</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
+      <c r="A43" s="8" t="n">
         <v>3199</v>
       </c>
-      <c r="B43" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6" t="n">
+      <c r="B43" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8" t="n">
         <v>1.12054712437551</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="8" t="n">
         <v>-0.425200428126531</v>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="8" t="n">
         <v>1.46938775510204</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>-6.0899625156185</v>
       </c>
-      <c r="G43" s="7" t="n">
+      <c r="G43" s="9" t="n">
         <v>-0.576195901277442</v>
       </c>
-      <c r="H43" s="8" t="n">
+      <c r="H43" s="10" t="n">
         <v>-1.4065737597509</v>
       </c>
       <c r="I43" s="1" t="n">
@@ -1612,30 +1751,33 @@
       <c r="J43" s="1" t="n">
         <v>-0.0472774195504602</v>
       </c>
+      <c r="K43" s="2" t="n">
+        <v>15.4707889</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="8" t="n">
         <v>3200</v>
       </c>
-      <c r="B44" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="6" t="n">
+      <c r="B44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="8" t="n">
         <v>0.38471496747551</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="8" t="n">
         <v>-0.227490922526531</v>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="8" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G44" s="7" t="n">
+      <c r="G44" s="9" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H44" s="8" t="n">
+      <c r="H44" s="10" t="n">
         <v>4.55970209885149</v>
       </c>
       <c r="I44" s="1" t="n">
@@ -1644,30 +1786,33 @@
       <c r="J44" s="1" t="n">
         <v>-0.00448194001611386</v>
       </c>
+      <c r="K44" s="2" t="n">
+        <v>-3.801679295</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
+      <c r="A45" s="8" t="n">
         <v>3206</v>
       </c>
-      <c r="B45" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="6" t="n">
+      <c r="B45" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8" t="n">
         <v>-1.61099413722449</v>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" s="8" t="n">
         <v>1.79662560727347</v>
       </c>
-      <c r="E45" s="6" t="n">
+      <c r="E45" s="8" t="n">
         <v>-1.53061224489796</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>-5.90628904623074</v>
       </c>
-      <c r="G45" s="7" t="n">
+      <c r="G45" s="9" t="n">
         <v>1.73335528885202</v>
       </c>
-      <c r="H45" s="8" t="n">
+      <c r="H45" s="10" t="n">
         <v>-3.21301338774939</v>
       </c>
       <c r="I45" s="1" t="n">
@@ -1676,30 +1821,33 @@
       <c r="J45" s="1" t="n">
         <v>0.0297105835220986</v>
       </c>
+      <c r="K45" s="2" t="n">
+        <v>-17.73933681</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+      <c r="A46" s="8" t="n">
         <v>3212</v>
       </c>
-      <c r="B46" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6" t="n">
+      <c r="B46" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8" t="n">
         <v>0.89442878817551</v>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" s="8" t="n">
         <v>-1.88243070862653</v>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="E46" s="8" t="n">
         <v>-3.53061224489796</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>4.21615993336109</v>
       </c>
-      <c r="G46" s="7" t="n">
+      <c r="G46" s="9" t="n">
         <v>-1.45006596635573</v>
       </c>
-      <c r="H46" s="8" t="n">
+      <c r="H46" s="10" t="n">
         <v>4.55970209885149</v>
       </c>
       <c r="I46" s="1" t="n">
@@ -1708,30 +1856,33 @@
       <c r="J46" s="1" t="n">
         <v>0.0406439247070019</v>
       </c>
+      <c r="K46" s="2" t="n">
+        <v>20.39697456</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
+      <c r="A47" s="8" t="n">
         <v>3218</v>
       </c>
-      <c r="B47" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6" t="n">
+      <c r="B47" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8" t="n">
         <v>-1.64878619992449</v>
       </c>
-      <c r="D47" s="6" t="n">
+      <c r="D47" s="8" t="n">
         <v>-0.231135862026531</v>
       </c>
-      <c r="E47" s="6" t="n">
+      <c r="E47" s="8" t="n">
         <v>0.469387755102041</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>-8.02873802582258</v>
       </c>
-      <c r="G47" s="7" t="n">
+      <c r="G47" s="9" t="n">
         <v>4.95150801685543</v>
       </c>
-      <c r="H47" s="8" t="n">
+      <c r="H47" s="10" t="n">
         <v>1.76425867452769</v>
       </c>
       <c r="I47" s="1" t="n">
@@ -1740,30 +1891,33 @@
       <c r="J47" s="1" t="n">
         <v>-0.00040363343956692</v>
       </c>
+      <c r="K47" s="2" t="n">
+        <v>6.7607926</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="8" t="n">
         <v>3220</v>
       </c>
-      <c r="B48" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="6" t="n">
+      <c r="B48" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="8" t="n">
         <v>-2.20844397832449</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="8" t="n">
         <v>1.05550912267347</v>
       </c>
-      <c r="E48" s="6" t="n">
+      <c r="E48" s="8" t="n">
         <v>1.46938775510204</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>-6.0899625156185</v>
       </c>
-      <c r="G48" s="7" t="n">
+      <c r="G48" s="9" t="n">
         <v>0.00638414210808214</v>
       </c>
-      <c r="H48" s="8" t="n">
+      <c r="H48" s="10" t="n">
         <v>-0.550537777633396</v>
       </c>
       <c r="I48" s="1" t="n">
@@ -1772,9 +1926,12 @@
       <c r="J48" s="1" t="n">
         <v>-0.0204362078366961</v>
       </c>
+      <c r="K48" s="2" t="n">
+        <v>-23.8447664</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="8"/>
+      <c r="H49" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
